--- a/Lab3_HP_Data.xlsx
+++ b/Lab3_HP_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjros\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071AE28-CEC0-47ED-8640-90C15EAFD091}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D95213-173F-4F21-A619-AA464CE8D120}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{386FCD49-053A-465F-A002-B7AABEE1AA7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{386FCD49-053A-465F-A002-B7AABEE1AA7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RC HP" sheetId="1" r:id="rId1"/>
+    <sheet name="Active LP" sheetId="2" r:id="rId2"/>
+    <sheet name="Active HP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Data for HP RC Circuit (R = 330K and C = 0.01 uF)</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>Vin (mV)</t>
+  </si>
+  <si>
+    <t>Data for HP Active Circuit (f0 = 50Hz)</t>
   </si>
 </sst>
 </file>
@@ -409,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD6D69-8517-4F25-965C-43A8BC847927}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +732,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,4 +1015,294 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D67B26D-ECA2-4AE9-A411-E95C3A8DA265}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>108.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>175</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>372</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>588</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>685</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>764</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>888</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>954</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>250</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>300</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>400</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>